--- a/medicine/Médecine vétérinaire/Laetitia_Barlerin/Laetitia_Barlerin.xlsx
+++ b/medicine/Médecine vétérinaire/Laetitia_Barlerin/Laetitia_Barlerin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laetitia Barlerin, née le 19 juin 1974 à Toulouse, est une vétérinaire, journaliste, écrivain et animatrice de radio et de télévision française.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 19 juin 1974 à Toulouse, Laetitia Barlerin est diplômée de l'École nationale vétérinaire d'Alfort et titulaire d'un DEA sur le comportement animal[1],[2].
-À la radio, elle présente de 2002 à 2017 l'émission animalière Vos animaux tous les dimanches matin de 6h à 8h, sur RMC[2] dans le cadre de la matinale de François Sorel.
-À la télévision, elle coanime avec David Antoine l'émission Trop fort l'animal sur Gulli. Elle tient également une rubrique « Conseils véto » dans l'émission 30 millions d'amis sur France 3[1] et participe à diverses émissions télévisées comme vétérinaire[2].
-Dans la presse, elle collabore à divers journaux tels que La Dépêche vétérinaire, L'essentiel, 30 millions d'amis, Côté Chat, Télé 7 jours ou Rustica[2]…
-Elle est également l'auteur de plusieurs livres et est directrice de la collection « Pas si bêtes » des éditions Rustica[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 19 juin 1974 à Toulouse, Laetitia Barlerin est diplômée de l'École nationale vétérinaire d'Alfort et titulaire d'un DEA sur le comportement animal,.
+À la radio, elle présente de 2002 à 2017 l'émission animalière Vos animaux tous les dimanches matin de 6h à 8h, sur RMC dans le cadre de la matinale de François Sorel.
+À la télévision, elle coanime avec David Antoine l'émission Trop fort l'animal sur Gulli. Elle tient également une rubrique « Conseils véto » dans l'émission 30 millions d'amis sur France 3 et participe à diverses émissions télévisées comme vétérinaire.
+Dans la presse, elle collabore à divers journaux tels que La Dépêche vétérinaire, L'essentiel, 30 millions d'amis, Côté Chat, Télé 7 jours ou Rustica…
+Elle est également l'auteur de plusieurs livres et est directrice de la collection « Pas si bêtes » des éditions Rustica.
 De 2011 à 2013, elle intervient comme expert sur les animaux dans le jeu télévisé Seriez-vous un bon expert ? présenté par Julien Courbet sur France 2. Depuis le 5 mai 2013, elle anime en duo avec Christophe Le Dref l'émission Véto, le mag sur la chaîne Animaux[réf. nécessaire].
-Depuis janvier 2014, elle présente une chronique vétérinaire chaque mercredi dans l'émission La Quotidienne sur France 5[3].
+Depuis janvier 2014, elle présente une chronique vétérinaire chaque mercredi dans l'émission La Quotidienne sur France 5.
 Elle participe à l'émission La Vie secrète des chats diffusée depuis le 20 août 2017 sur TF1. L'émission est également diffusée sur la RTBF.
-En 2019, elle reçoit le prix Jean Dorst[4].
+En 2019, elle reçoit le prix Jean Dorst.
 En 2023, Laetitia Barlerin est dans l'émission Mon animal fait la loi sur Gulli.
 </t>
         </is>
@@ -551,7 +565,9 @@
           <t>Émissions de télévision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trop fort l'animal sur Gulli
 30 millions d'amis sur France 3
@@ -588,7 +604,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Griffes et velours, Aniwa (2003), co-écrit avec Jean-Pierre Vaissaire
 100 idées fausses sur votre chien, Rustica (2006)
